--- a/Hito 1/GH1P2.xlsx
+++ b/Hito 1/GH1P2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P1AKS\Hito 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B0794-CEC4-446E-A0EA-4623EBABD8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB30CEA-78EE-480C-A329-AEE7B0C0B190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD33124-C538-43EB-864C-F6BAC2296A85}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +243,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,15 +376,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>H1P1!$B$13</c:f>
+              <c:f>H1P1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>  MEDIA</c:v>
+                  <c:v>  DESVIACIÓN TÍPICA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,21 +393,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -412,241 +430,241 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>H1P1!$C$13:$BY$13</c:f>
+              <c:f>H1P1!$C$14:$BY$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>21.8</c:v>
+                  <c:v>14.850738851802774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.9</c:v>
+                  <c:v>14.687863470679913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.7</c:v>
+                  <c:v>25.253382611708343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>16.294511686795378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.7</c:v>
+                  <c:v>22.346016299207438</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8</c:v>
+                  <c:v>15.940514420808382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.9</c:v>
+                  <c:v>21.787866144051627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3</c:v>
+                  <c:v>15.904227250779726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8</c:v>
+                  <c:v>16.578433111860857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>16.569382741805576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3</c:v>
+                  <c:v>24.580932086115492</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4</c:v>
+                  <c:v>22.465034559906151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>45.712142806917292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2</c:v>
+                  <c:v>24.009488864937449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>51.752509332613258</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>26.6449911907577</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7</c:v>
+                  <c:v>24.408559518697079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1</c:v>
+                  <c:v>27.556810007288174</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3</c:v>
+                  <c:v>22.183327072375778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7</c:v>
+                  <c:v>18.992396139274028</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.2</c:v>
+                  <c:v>39.646913849349964</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.3</c:v>
+                  <c:v>55.389629996156422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9</c:v>
+                  <c:v>23.865595879145076</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>32.342782124541415</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8</c:v>
+                  <c:v>42.063444144926287</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1</c:v>
+                  <c:v>26.575678103609452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.7</c:v>
+                  <c:v>34.730070224198762</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1</c:v>
+                  <c:v>25.082087455216143</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.7</c:v>
+                  <c:v>27.034134801107363</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>25.330920937770021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>22.5292402594199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>30.11994540352142</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>32.359267949417863</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7</c:v>
+                  <c:v>38.098702223449962</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.6</c:v>
+                  <c:v>31.687536982226941</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>29.875482329904642</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.7</c:v>
+                  <c:v>30.503915959904049</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.2</c:v>
+                  <c:v>63.653925426655526</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.9</c:v>
+                  <c:v>46.89894573560381</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.8</c:v>
+                  <c:v>21.138695429104519</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1</c:v>
+                  <c:v>36.04318397576872</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7</c:v>
+                  <c:v>43.868616977921192</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.3</c:v>
+                  <c:v>39.949412455698962</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.4</c:v>
+                  <c:v>39.104418619326843</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.8</c:v>
+                  <c:v>43.354353875937306</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.7</c:v>
+                  <c:v>38.275173270527318</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7</c:v>
+                  <c:v>80.279304099292403</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.1</c:v>
+                  <c:v>49.268989570858182</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7</c:v>
+                  <c:v>36.726617655924215</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.7</c:v>
+                  <c:v>42.581164328321925</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1</c:v>
+                  <c:v>46.953404799036917</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.7</c:v>
+                  <c:v>51.101641634861174</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.2</c:v>
+                  <c:v>39.072013286011035</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.3</c:v>
+                  <c:v>44.010226084399982</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.3</c:v>
+                  <c:v>88.325471348240697</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.1</c:v>
+                  <c:v>43.027768811418618</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.2</c:v>
+                  <c:v>42.578032938228709</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.7</c:v>
+                  <c:v>47.960747839596223</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7</c:v>
+                  <c:v>70.978870095261442</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.7</c:v>
+                  <c:v>64.934924689603235</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1</c:v>
+                  <c:v>42.007406754312065</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.7</c:v>
+                  <c:v>50.588646069163687</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.7</c:v>
+                  <c:v>52.360820806740179</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.4</c:v>
+                  <c:v>69.045556619444298</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8</c:v>
+                  <c:v>63.76031506962444</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>81.662176747323542</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.8</c:v>
+                  <c:v>63.203463336891424</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>60.35229904485827</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.1</c:v>
+                  <c:v>57.304353140829448</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.7</c:v>
+                  <c:v>81.814424156135203</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.9</c:v>
+                  <c:v>80.495962631674885</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>66.623402628339079</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5</c:v>
+                  <c:v>89.8777564868589</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.2</c:v>
+                  <c:v>169.17564836583307</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.4</c:v>
+                  <c:v>81.080207202497945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB47-4C7B-A595-42BD1265BD77}"/>
+              <c16:uniqueId val="{00000001-EB47-4C7B-A595-42BD1265BD77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -658,24 +676,23 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1470663903"/>
-        <c:axId val="1470666399"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="1878088831"/>
+        <c:axId val="1878087583"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>H1P1!$B$14</c:f>
+              <c:f>H1P1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>  DESVIACIÓN TÍPICA</c:v>
+                  <c:v>  MEDIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,7 +700,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -700,234 +717,234 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>H1P1!$C$14:$BY$14</c:f>
+              <c:f>H1P1!$C$13:$BY$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>16.625281952496326</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.061568636989259</c:v>
+                  <c:v>27.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.557924465236618</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.014570065407959</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.393780766469634</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.338594306135847</c:v>
+                  <c:v>27.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5343657109717395</c:v>
+                  <c:v>31.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1383864084555082</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2300263264058486</c:v>
+                  <c:v>29.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1044642770378514</c:v>
+                  <c:v>28.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1383864084555082</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.328067986711619</c:v>
+                  <c:v>35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2591750830880848</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.529822128134704</c:v>
+                  <c:v>41.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2163702135578394</c:v>
+                  <c:v>63.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67494855771055295</c:v>
+                  <c:v>47.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4579198316656221</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.1383864084555082</c:v>
+                  <c:v>43.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>34.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0111034057598935</c:v>
+                  <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.1499805749541885</c:v>
+                  <c:v>71.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9567101935263791</c:v>
+                  <c:v>42.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2163702135578394</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1311822359545776</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.5065617423417876</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>54.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.6568542494923806</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.2163702135578394</c:v>
+                  <c:v>47.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.7986926847903799</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.1305290437978339</c:v>
+                  <c:v>68.7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4641016151377544</c:v>
+                  <c:v>69.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9261208538429777</c:v>
+                  <c:v>61.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.4117024584998914</c:v>
+                  <c:v>57.9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7461923416925424</c:v>
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.9033003379221123</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2300263264058486</c:v>
+                  <c:v>60.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.1383864084555082</c:v>
+                  <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.48628375393589</c:v>
+                  <c:v>70.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0288059108389627</c:v>
+                  <c:v>77.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>78.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>87.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>96.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>89.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.0111034057598935</c:v>
+                  <c:v>87.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.1383864084555082</c:v>
+                  <c:v>91.3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.1383864084555082</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.0111034057598935</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>100.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>117.9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>126.2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>120.9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>135.9</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.1055533837195881</c:v>
+                  <c:v>115.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.0288059108389627</c:v>
+                  <c:v>129.6</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.4117024584998914</c:v>
+                  <c:v>149.4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.7287342646343671</c:v>
+                  <c:v>135.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.4117024584998914</c:v>
+                  <c:v>118.8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.5396228229666784</c:v>
+                  <c:v>142.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5726114679444931</c:v>
+                  <c:v>161.6</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.3326666399978659</c:v>
+                  <c:v>146.4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.4117024584998914</c:v>
+                  <c:v>155.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9888765156985881</c:v>
+                  <c:v>166.3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.0111034057598935</c:v>
+                  <c:v>202.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.0993826925266337</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +952,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB47-4C7B-A595-42BD1265BD77}"/>
+              <c16:uniqueId val="{00000000-EB47-4C7B-A595-42BD1265BD77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -949,8 +966,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1878088831"/>
-        <c:axId val="1878087583"/>
+        <c:axId val="1470663903"/>
+        <c:axId val="1470666399"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1470663903"/>
@@ -2313,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA320F9-5786-4CF2-BE25-564C4E776E9D}">
-  <dimension ref="B1:CF14"/>
+  <dimension ref="B1:CF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CF32" sqref="CF32:CF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,230 +2585,230 @@
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="16">
         <v>62</v>
       </c>
-      <c r="D3" s="2">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>8</v>
-      </c>
-      <c r="R3" s="2">
-        <v>9</v>
-      </c>
-      <c r="S3" s="2">
-        <v>9</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>16</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>15</v>
-      </c>
-      <c r="X3" s="2">
-        <v>16</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>8</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>16</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>16</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>16</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>16</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>16</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>16</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>0</v>
+      <c r="D3" s="16">
+        <v>68</v>
+      </c>
+      <c r="E3" s="16">
+        <v>99</v>
+      </c>
+      <c r="F3" s="16">
+        <v>68</v>
+      </c>
+      <c r="G3" s="16">
+        <v>86</v>
+      </c>
+      <c r="H3" s="16">
+        <v>68</v>
+      </c>
+      <c r="I3" s="16">
+        <v>91</v>
+      </c>
+      <c r="J3" s="16">
+        <v>70</v>
+      </c>
+      <c r="K3" s="16">
+        <v>72</v>
+      </c>
+      <c r="L3" s="16">
+        <v>73</v>
+      </c>
+      <c r="M3" s="16">
+        <v>100</v>
+      </c>
+      <c r="N3" s="16">
+        <v>96</v>
+      </c>
+      <c r="O3" s="16">
+        <v>142</v>
+      </c>
+      <c r="P3" s="16">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>181</v>
+      </c>
+      <c r="R3" s="16">
+        <v>109</v>
+      </c>
+      <c r="S3" s="16">
+        <v>102</v>
+      </c>
+      <c r="T3" s="16">
+        <v>113</v>
+      </c>
+      <c r="U3" s="16">
+        <v>101</v>
+      </c>
+      <c r="V3" s="16">
+        <v>83</v>
+      </c>
+      <c r="W3" s="16">
+        <v>148</v>
+      </c>
+      <c r="X3" s="16">
+        <v>224</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>139</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>152</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>126</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>139</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>116</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>127</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>121</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>136</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>151</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>169</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>149</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>139</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>140</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>253</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>191</v>
+      </c>
+      <c r="AP3" s="16">
+        <v>115</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>162</v>
+      </c>
+      <c r="AR3" s="16">
+        <v>187</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>170</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>166</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>185</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>172</v>
+      </c>
+      <c r="AW3" s="16">
+        <v>301</v>
+      </c>
+      <c r="AX3" s="16">
+        <v>218</v>
+      </c>
+      <c r="AY3" s="16">
+        <v>161</v>
+      </c>
+      <c r="AZ3" s="16">
+        <v>186</v>
+      </c>
+      <c r="BA3" s="16">
+        <v>202</v>
+      </c>
+      <c r="BB3" s="16">
+        <v>219</v>
+      </c>
+      <c r="BC3" s="16">
+        <v>175</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="BH3" s="2">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="BI3" s="2">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="BJ3" s="2">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="BK3" s="2">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="BL3" s="2">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="BM3" s="2">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="BN3" s="2">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="BO3" s="2">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="BP3" s="2">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="BQ3" s="2">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="BR3" s="2">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="BT3" s="2">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="BU3" s="2">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="BV3" s="2">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="BW3" s="2">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="BX3" s="2">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="BY3" s="2">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="12"/>
@@ -2805,230 +2822,230 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="17">
+        <v>28</v>
+      </c>
+      <c r="D4" s="17">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17">
+        <v>38</v>
+      </c>
+      <c r="F4" s="17">
+        <v>26</v>
+      </c>
+      <c r="G4" s="17">
+        <v>47</v>
+      </c>
+      <c r="H4" s="17">
+        <v>33</v>
+      </c>
+      <c r="I4" s="17">
+        <v>38</v>
+      </c>
+      <c r="J4" s="17">
+        <v>33</v>
+      </c>
+      <c r="K4" s="17">
+        <v>34</v>
+      </c>
+      <c r="L4" s="17">
         <v>31</v>
       </c>
-      <c r="D4" s="3">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3">
-        <v>16</v>
-      </c>
-      <c r="N4" s="3">
-        <v>16</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>16</v>
-      </c>
-      <c r="R4" s="3">
-        <v>8</v>
-      </c>
-      <c r="S4" s="3">
-        <v>8</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>16</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>15</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>18</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>8</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>15</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>15</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>0</v>
+      <c r="M4" s="17">
+        <v>37</v>
+      </c>
+      <c r="N4" s="17">
+        <v>38</v>
+      </c>
+      <c r="O4" s="17">
+        <v>133</v>
+      </c>
+      <c r="P4" s="17">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>76</v>
+      </c>
+      <c r="R4" s="17">
+        <v>68</v>
+      </c>
+      <c r="S4" s="17">
+        <v>55</v>
+      </c>
+      <c r="T4" s="17">
+        <v>36</v>
+      </c>
+      <c r="U4" s="17">
+        <v>44</v>
+      </c>
+      <c r="V4" s="17">
+        <v>42</v>
+      </c>
+      <c r="W4" s="17">
+        <v>37</v>
+      </c>
+      <c r="X4" s="17">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>71</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="17">
+        <v>66</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="17">
+        <v>62</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>54</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="17">
+        <v>74</v>
+      </c>
+      <c r="AS4" s="17">
+        <v>72</v>
+      </c>
+      <c r="AT4" s="17">
+        <v>66</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>86</v>
+      </c>
+      <c r="AV4" s="17">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="17">
+        <v>110</v>
+      </c>
+      <c r="AX4" s="17">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="17">
+        <v>71</v>
+      </c>
+      <c r="AZ4" s="17">
+        <v>85</v>
+      </c>
+      <c r="BA4" s="17">
+        <v>124</v>
+      </c>
+      <c r="BB4" s="17">
+        <v>118</v>
+      </c>
+      <c r="BC4" s="17">
+        <v>102</v>
       </c>
       <c r="BD4" s="3">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="BE4" s="3">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="BF4" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BG4" s="3">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="BH4" s="3">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="BI4" s="3">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="BJ4" s="3">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="BK4" s="3">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="BL4" s="3">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="BM4" s="3">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="BN4" s="3">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="BO4" s="3">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="BP4" s="3">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="BQ4" s="3">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="BR4" s="3">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="BS4" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="BT4" s="3">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="BU4" s="3">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="BV4" s="3">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="BW4" s="3">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="BX4" s="3">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="BY4" s="3">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="BZ4" s="12"/>
       <c r="CA4" s="12"/>
@@ -3042,230 +3059,230 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>8</v>
-      </c>
-      <c r="R5" s="2">
-        <v>8</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>16</v>
-      </c>
-      <c r="U5" s="2">
-        <v>16</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>15</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>8</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>8</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>16</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>15</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>16</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>4</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>15</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="2">
-        <v>16</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>15</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>16</v>
+      <c r="C5" s="16">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16">
+        <v>22</v>
+      </c>
+      <c r="E5" s="16">
+        <v>28</v>
+      </c>
+      <c r="F5" s="16">
+        <v>40</v>
+      </c>
+      <c r="G5" s="16">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16">
+        <v>34</v>
+      </c>
+      <c r="I5" s="16">
+        <v>27</v>
+      </c>
+      <c r="J5" s="16">
+        <v>30</v>
+      </c>
+      <c r="K5" s="16">
+        <v>22</v>
+      </c>
+      <c r="L5" s="16">
+        <v>32</v>
+      </c>
+      <c r="M5" s="16">
+        <v>32</v>
+      </c>
+      <c r="N5" s="16">
+        <v>37</v>
+      </c>
+      <c r="O5" s="16">
+        <v>41</v>
+      </c>
+      <c r="P5" s="16">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>52</v>
+      </c>
+      <c r="R5" s="16">
+        <v>65</v>
+      </c>
+      <c r="S5" s="16">
+        <v>27</v>
+      </c>
+      <c r="T5" s="16">
+        <v>29</v>
+      </c>
+      <c r="U5" s="16">
+        <v>33</v>
+      </c>
+      <c r="V5" s="16">
+        <v>42</v>
+      </c>
+      <c r="W5" s="16">
+        <v>37</v>
+      </c>
+      <c r="X5" s="16">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>67</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>72</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>65</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>50</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>50</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>61</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>63</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>54</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>69</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>70</v>
+      </c>
+      <c r="AR5" s="16">
+        <v>76</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>74</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>69</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>73</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>91</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>99</v>
+      </c>
+      <c r="AX5" s="16">
+        <v>97</v>
+      </c>
+      <c r="AY5" s="16">
+        <v>68</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>60</v>
+      </c>
+      <c r="BA5" s="16">
+        <v>116</v>
+      </c>
+      <c r="BB5" s="16">
+        <v>98</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>93</v>
       </c>
       <c r="BD5" s="2">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="BH5" s="2">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="BI5" s="2">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="BJ5" s="2">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="BK5" s="2">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="BL5" s="2">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="BM5" s="2">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="BN5" s="2">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BO5" s="2">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="BP5" s="2">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="BQ5" s="2">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BS5" s="2">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="BT5" s="2">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="BU5" s="2">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="BV5" s="2">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="BW5" s="2">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="BX5" s="2">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="BY5" s="2">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="BZ5" s="12"/>
       <c r="CA5" s="12"/>
@@ -3279,230 +3296,230 @@
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17">
         <v>31</v>
       </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>16</v>
-      </c>
-      <c r="L6" s="3">
-        <v>8</v>
-      </c>
-      <c r="M6" s="3">
-        <v>15</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>7</v>
-      </c>
-      <c r="P6" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>8</v>
-      </c>
-      <c r="R6" s="3">
-        <v>8</v>
-      </c>
-      <c r="S6" s="3">
-        <v>8</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>16</v>
-      </c>
-      <c r="X6" s="3">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>8</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>4</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>16</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>16</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>16</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>16</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>15</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>0</v>
+      <c r="E6" s="17">
+        <v>25</v>
+      </c>
+      <c r="F6" s="17">
+        <v>36</v>
+      </c>
+      <c r="G6" s="17">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17">
+        <v>25</v>
+      </c>
+      <c r="I6" s="17">
+        <v>21</v>
+      </c>
+      <c r="J6" s="17">
+        <v>29</v>
+      </c>
+      <c r="K6" s="17">
+        <v>29</v>
+      </c>
+      <c r="L6" s="17">
+        <v>28</v>
+      </c>
+      <c r="M6" s="17">
+        <v>23</v>
+      </c>
+      <c r="N6" s="17">
+        <v>18</v>
+      </c>
+      <c r="O6" s="17">
+        <v>28</v>
+      </c>
+      <c r="P6" s="17">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>124</v>
+      </c>
+      <c r="R6" s="17">
+        <v>48</v>
+      </c>
+      <c r="S6" s="17">
+        <v>26</v>
+      </c>
+      <c r="T6" s="17">
+        <v>29</v>
+      </c>
+      <c r="U6" s="17">
+        <v>28</v>
+      </c>
+      <c r="V6" s="17">
+        <v>17</v>
+      </c>
+      <c r="W6" s="17">
+        <v>24</v>
+      </c>
+      <c r="X6" s="17">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>147</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="17">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="17">
+        <v>50</v>
+      </c>
+      <c r="AK6" s="17">
+        <v>56</v>
+      </c>
+      <c r="AL6" s="17">
+        <v>39</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>54</v>
+      </c>
+      <c r="AN6" s="17">
+        <v>51</v>
+      </c>
+      <c r="AO6" s="17">
+        <v>61</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>58</v>
+      </c>
+      <c r="AQ6" s="17">
+        <v>62</v>
+      </c>
+      <c r="AR6" s="17">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="17">
+        <v>52</v>
+      </c>
+      <c r="AT6" s="17">
+        <v>72</v>
+      </c>
+      <c r="AU6" s="17">
+        <v>98</v>
+      </c>
+      <c r="AV6" s="17">
+        <v>98</v>
+      </c>
+      <c r="AW6" s="17">
+        <v>91</v>
+      </c>
+      <c r="AX6" s="17">
+        <v>71</v>
+      </c>
+      <c r="AY6" s="17">
+        <v>89</v>
+      </c>
+      <c r="AZ6" s="17">
+        <v>65</v>
+      </c>
+      <c r="BA6" s="17">
+        <v>117</v>
+      </c>
+      <c r="BB6" s="17">
+        <v>97</v>
+      </c>
+      <c r="BC6" s="17">
+        <v>109</v>
       </c>
       <c r="BD6" s="3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BE6" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BF6" s="3">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="BG6" s="3">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="BH6" s="3">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="BI6" s="3">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="BJ6" s="3">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="BK6" s="3">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="BL6" s="3">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="BM6" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="BN6" s="3">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BO6" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BP6" s="3">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="BQ6" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BR6" s="3">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BS6" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="BT6" s="3">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="BU6" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BV6" s="3">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="BW6" s="3">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="BX6" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BY6" s="3">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="BZ6" s="12"/>
       <c r="CA6" s="12"/>
@@ -3516,230 +3533,230 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>8</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>16</v>
-      </c>
-      <c r="O7" s="2">
-        <v>8</v>
-      </c>
-      <c r="P7" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2">
-        <v>8</v>
-      </c>
-      <c r="S7" s="2">
-        <v>8</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>15</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>16</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>14</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>7</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>16</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>16</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>15</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>16</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>15</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>15</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>0</v>
+      <c r="C7" s="16">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16">
+        <v>21</v>
+      </c>
+      <c r="G7" s="16">
+        <v>18</v>
+      </c>
+      <c r="H7" s="16">
+        <v>20</v>
+      </c>
+      <c r="I7" s="16">
+        <v>28</v>
+      </c>
+      <c r="J7" s="16">
+        <v>29</v>
+      </c>
+      <c r="K7" s="16">
+        <v>12</v>
+      </c>
+      <c r="L7" s="16">
+        <v>20</v>
+      </c>
+      <c r="M7" s="16">
+        <v>19</v>
+      </c>
+      <c r="N7" s="16">
+        <v>35</v>
+      </c>
+      <c r="O7" s="16">
+        <v>30</v>
+      </c>
+      <c r="P7" s="16">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>39</v>
+      </c>
+      <c r="R7" s="16">
+        <v>32</v>
+      </c>
+      <c r="S7" s="16">
+        <v>32</v>
+      </c>
+      <c r="T7" s="16">
+        <v>25</v>
+      </c>
+      <c r="U7" s="16">
+        <v>35</v>
+      </c>
+      <c r="V7" s="16">
+        <v>26</v>
+      </c>
+      <c r="W7" s="16">
+        <v>30</v>
+      </c>
+      <c r="X7" s="16">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>38</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>42</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>41</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>35</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>36</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>87</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>66</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>43</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>44</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>69</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>51</v>
+      </c>
+      <c r="AO7" s="16">
+        <v>71</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>50</v>
+      </c>
+      <c r="AQ7" s="16">
+        <v>61</v>
+      </c>
+      <c r="AR7" s="16">
+        <v>58</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>77</v>
+      </c>
+      <c r="AU7" s="16">
+        <v>91</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>67</v>
+      </c>
+      <c r="AW7" s="16">
+        <v>66</v>
+      </c>
+      <c r="AX7" s="16">
+        <v>105</v>
+      </c>
+      <c r="AY7" s="16">
+        <v>69</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>80</v>
+      </c>
+      <c r="BA7" s="16">
+        <v>84</v>
+      </c>
+      <c r="BB7" s="16">
+        <v>73</v>
+      </c>
+      <c r="BC7" s="16">
+        <v>100</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BE7" s="2">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="BH7" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BI7" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BJ7" s="2">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BL7" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BM7" s="2">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="BN7" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BO7" s="2">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="BP7" s="2">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="BQ7" s="2">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="BR7" s="2">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BU7" s="2">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="BV7" s="2">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="BW7" s="2">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="BX7" s="2">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="BY7" s="2">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="BZ7" s="12"/>
       <c r="CA7" s="12"/>
@@ -3753,230 +3770,230 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="17">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17">
         <v>15</v>
       </c>
-      <c r="E8" s="3">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3">
-        <v>9</v>
-      </c>
-      <c r="M8" s="3">
-        <v>16</v>
-      </c>
-      <c r="N8" s="3">
-        <v>7</v>
-      </c>
-      <c r="O8" s="3">
-        <v>11</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>16</v>
-      </c>
-      <c r="R8" s="3">
-        <v>8</v>
-      </c>
-      <c r="S8" s="3">
-        <v>8</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>15</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>16</v>
-      </c>
-      <c r="X8" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>11</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>16</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>16</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>15</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>15</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>15</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>0</v>
+      <c r="F8" s="17">
+        <v>24</v>
+      </c>
+      <c r="G8" s="17">
+        <v>19</v>
+      </c>
+      <c r="H8" s="17">
+        <v>18</v>
+      </c>
+      <c r="I8" s="17">
+        <v>24</v>
+      </c>
+      <c r="J8" s="17">
+        <v>23</v>
+      </c>
+      <c r="K8" s="17">
+        <v>19</v>
+      </c>
+      <c r="L8" s="17">
+        <v>27</v>
+      </c>
+      <c r="M8" s="17">
+        <v>23</v>
+      </c>
+      <c r="N8" s="17">
+        <v>29</v>
+      </c>
+      <c r="O8" s="17">
+        <v>51</v>
+      </c>
+      <c r="P8" s="17">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>36</v>
+      </c>
+      <c r="R8" s="17">
+        <v>45</v>
+      </c>
+      <c r="S8" s="17">
+        <v>31</v>
+      </c>
+      <c r="T8" s="17">
+        <v>27</v>
+      </c>
+      <c r="U8" s="17">
+        <v>22</v>
+      </c>
+      <c r="V8" s="17">
+        <v>32</v>
+      </c>
+      <c r="W8" s="17">
+        <v>23</v>
+      </c>
+      <c r="X8" s="17">
+        <v>53</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>38</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>44</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>36</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>52</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>74</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>48</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>59</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>52</v>
+      </c>
+      <c r="AN8" s="17">
+        <v>63</v>
+      </c>
+      <c r="AO8" s="17">
+        <v>63</v>
+      </c>
+      <c r="AP8" s="17">
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="17">
+        <v>68</v>
+      </c>
+      <c r="AR8" s="17">
+        <v>63</v>
+      </c>
+      <c r="AS8" s="17">
+        <v>86</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU8" s="17">
+        <v>59</v>
+      </c>
+      <c r="AV8" s="17">
+        <v>56</v>
+      </c>
+      <c r="AW8" s="17">
+        <v>75</v>
+      </c>
+      <c r="AX8" s="17">
+        <v>63</v>
+      </c>
+      <c r="AY8" s="17">
+        <v>87</v>
+      </c>
+      <c r="AZ8" s="17">
+        <v>80</v>
+      </c>
+      <c r="BA8" s="17">
+        <v>55</v>
+      </c>
+      <c r="BB8" s="17">
+        <v>52</v>
+      </c>
+      <c r="BC8" s="17">
+        <v>57</v>
       </c>
       <c r="BD8" s="3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="BE8" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BG8" s="3">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="BH8" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BI8" s="3">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="BJ8" s="3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BK8" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BL8" s="3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BM8" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BN8" s="3">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="BO8" s="3">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="BP8" s="3">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="BQ8" s="3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BR8" s="3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="BS8" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="BT8" s="3">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="BU8" s="3">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="BV8" s="3">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BW8" s="3">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="BX8" s="3">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="BY8" s="3">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="BZ8" s="12"/>
       <c r="CA8" s="12"/>
@@ -3990,230 +4007,230 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="16">
         <v>16</v>
       </c>
-      <c r="E9" s="2">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>9</v>
-      </c>
-      <c r="O9" s="2">
-        <v>8</v>
-      </c>
-      <c r="P9" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>16</v>
-      </c>
-      <c r="R9" s="2">
-        <v>8</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>15</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>16</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>16</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>15</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>15</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>16</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>16</v>
-      </c>
-      <c r="AY9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2">
-        <v>15</v>
-      </c>
-      <c r="BA9" s="2">
-        <v>16</v>
-      </c>
-      <c r="BB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2">
-        <v>0</v>
+      <c r="D9" s="16">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16">
+        <v>18</v>
+      </c>
+      <c r="G9" s="16">
+        <v>11</v>
+      </c>
+      <c r="H9" s="16">
+        <v>22</v>
+      </c>
+      <c r="I9" s="16">
+        <v>20</v>
+      </c>
+      <c r="J9" s="16">
+        <v>20</v>
+      </c>
+      <c r="K9" s="16">
+        <v>22</v>
+      </c>
+      <c r="L9" s="16">
+        <v>27</v>
+      </c>
+      <c r="M9" s="16">
+        <v>24</v>
+      </c>
+      <c r="N9" s="16">
+        <v>31</v>
+      </c>
+      <c r="O9" s="16">
+        <v>29</v>
+      </c>
+      <c r="P9" s="16">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>45</v>
+      </c>
+      <c r="R9" s="16">
+        <v>32</v>
+      </c>
+      <c r="S9" s="16">
+        <v>27</v>
+      </c>
+      <c r="T9" s="16">
+        <v>24</v>
+      </c>
+      <c r="U9" s="16">
+        <v>41</v>
+      </c>
+      <c r="V9" s="16">
+        <v>26</v>
+      </c>
+      <c r="W9" s="16">
+        <v>22</v>
+      </c>
+      <c r="X9" s="16">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>37</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>29</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>40</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>65</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>64</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>73</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>59</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>63</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>52</v>
+      </c>
+      <c r="AO9" s="16">
+        <v>75</v>
+      </c>
+      <c r="AP9" s="16">
+        <v>64</v>
+      </c>
+      <c r="AQ9" s="16">
+        <v>62</v>
+      </c>
+      <c r="AR9" s="16">
+        <v>69</v>
+      </c>
+      <c r="AS9" s="16">
+        <v>43</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>64</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>41</v>
+      </c>
+      <c r="AV9" s="16">
+        <v>45</v>
+      </c>
+      <c r="AW9" s="16">
+        <v>39</v>
+      </c>
+      <c r="AX9" s="16">
+        <v>65</v>
+      </c>
+      <c r="AY9" s="16">
+        <v>62</v>
+      </c>
+      <c r="AZ9" s="16">
+        <v>77</v>
+      </c>
+      <c r="BA9" s="16">
+        <v>48</v>
+      </c>
+      <c r="BB9" s="16">
+        <v>54</v>
+      </c>
+      <c r="BC9" s="16">
+        <v>43</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BH9" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BI9" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BJ9" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BK9" s="2">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="BL9" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BM9" s="2">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BN9" s="2">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="BO9" s="2">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="BP9" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="BQ9" s="2">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BT9" s="2">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="BU9" s="2">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="BV9" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="BW9" s="2">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="BX9" s="2">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="BY9" s="2">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="BZ9" s="12"/>
       <c r="CA9" s="12"/>
@@ -4227,230 +4244,230 @@
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="17">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="17">
+        <v>21</v>
+      </c>
+      <c r="E10" s="17">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17">
+        <v>17</v>
+      </c>
+      <c r="H10" s="17">
+        <v>22</v>
+      </c>
+      <c r="I10" s="17">
+        <v>26</v>
+      </c>
+      <c r="J10" s="17">
+        <v>17</v>
+      </c>
+      <c r="K10" s="17">
+        <v>19</v>
+      </c>
+      <c r="L10" s="17">
+        <v>17</v>
+      </c>
+      <c r="M10" s="17">
+        <v>23</v>
+      </c>
+      <c r="N10" s="17">
+        <v>23</v>
+      </c>
+      <c r="O10" s="17">
+        <v>25</v>
+      </c>
+      <c r="P10" s="17">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>43</v>
+      </c>
+      <c r="R10" s="17">
+        <v>21</v>
+      </c>
+      <c r="S10" s="17">
+        <v>18</v>
+      </c>
+      <c r="T10" s="17">
+        <v>26</v>
+      </c>
+      <c r="U10" s="17">
+        <v>33</v>
+      </c>
+      <c r="V10" s="17">
+        <v>26</v>
+      </c>
+      <c r="W10" s="17">
+        <v>16</v>
+      </c>
+      <c r="X10" s="17">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>44</v>
+      </c>
+      <c r="AC10" s="17">
         <v>31</v>
       </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3">
-        <v>16</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>15</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>16</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>8</v>
-      </c>
-      <c r="P10" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>16</v>
-      </c>
-      <c r="R10" s="3">
-        <v>8</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>16</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>8</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>14</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AP10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>5</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>16</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="3">
-        <v>15</v>
+      <c r="AD10" s="17">
+        <v>42</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>49</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>42</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>34</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>63</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>63</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>63</v>
+      </c>
+      <c r="AM10" s="17">
+        <v>49</v>
+      </c>
+      <c r="AN10" s="17">
+        <v>40</v>
+      </c>
+      <c r="AO10" s="17">
+        <v>105</v>
+      </c>
+      <c r="AP10" s="17">
+        <v>57</v>
+      </c>
+      <c r="AQ10" s="17">
+        <v>38</v>
+      </c>
+      <c r="AR10" s="17">
+        <v>48</v>
+      </c>
+      <c r="AS10" s="17">
+        <v>49</v>
+      </c>
+      <c r="AT10" s="17">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>38</v>
+      </c>
+      <c r="AV10" s="17">
+        <v>62</v>
+      </c>
+      <c r="AW10" s="17">
+        <v>33</v>
+      </c>
+      <c r="AX10" s="17">
+        <v>49</v>
+      </c>
+      <c r="AY10" s="17">
+        <v>49</v>
+      </c>
+      <c r="AZ10" s="17">
+        <v>44</v>
+      </c>
+      <c r="BA10" s="17">
+        <v>68</v>
+      </c>
+      <c r="BB10" s="17">
+        <v>65</v>
+      </c>
+      <c r="BC10" s="17">
+        <v>44</v>
       </c>
       <c r="BD10" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BE10" s="3">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="BF10" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="BG10" s="3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="BH10" s="3">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="BI10" s="3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="BJ10" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BK10" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BL10" s="3">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="BM10" s="3">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="BN10" s="3">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="BO10" s="3">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="BP10" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BQ10" s="3">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="BR10" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BS10" s="3">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="BT10" s="3">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="BU10" s="3">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="BV10" s="3">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="BW10" s="3">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="BX10" s="3">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BY10" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="BZ10" s="12"/>
       <c r="CA10" s="12"/>
@@ -4464,233 +4481,233 @@
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>16</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8</v>
-      </c>
-      <c r="O11" s="2">
-        <v>8</v>
-      </c>
-      <c r="P11" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>8</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="C11" s="16">
+        <v>13</v>
+      </c>
+      <c r="D11" s="16">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16">
+        <v>21</v>
+      </c>
+      <c r="F11" s="16">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16">
+        <v>17</v>
+      </c>
+      <c r="H11" s="16">
+        <v>11</v>
+      </c>
+      <c r="I11" s="16">
+        <v>24</v>
+      </c>
+      <c r="J11" s="16">
+        <v>21</v>
+      </c>
+      <c r="K11" s="16">
+        <v>31</v>
+      </c>
+      <c r="L11" s="16">
+        <v>17</v>
+      </c>
+      <c r="M11" s="16">
+        <v>20</v>
+      </c>
+      <c r="N11" s="16">
+        <v>17</v>
+      </c>
+      <c r="O11" s="16">
+        <v>17</v>
+      </c>
+      <c r="P11" s="16">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>18</v>
+      </c>
+      <c r="R11" s="16">
+        <v>31</v>
+      </c>
+      <c r="S11" s="16">
+        <v>33</v>
+      </c>
+      <c r="T11" s="16">
+        <v>22</v>
+      </c>
+      <c r="U11" s="16">
+        <v>40</v>
+      </c>
+      <c r="V11" s="16">
+        <v>31</v>
+      </c>
+      <c r="W11" s="16">
         <v>10</v>
       </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>16</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>15</v>
-      </c>
-      <c r="X11" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>12</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>6</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>16</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>11</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>15</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>4</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="2">
-        <v>16</v>
-      </c>
-      <c r="AZ11" s="2">
-        <v>16</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="2">
-        <v>16</v>
-      </c>
-      <c r="BC11" s="2">
-        <v>16</v>
+      <c r="X11" s="16">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>46</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>39</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>31</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>62</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>49</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>42</v>
+      </c>
+      <c r="AH11" s="16">
+        <v>38</v>
+      </c>
+      <c r="AI11" s="16">
+        <v>92</v>
+      </c>
+      <c r="AJ11" s="16">
+        <v>33</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>48</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>42</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>31</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>58</v>
+      </c>
+      <c r="AO11" s="16">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="16">
+        <v>40</v>
+      </c>
+      <c r="AQ11" s="16">
+        <v>42</v>
+      </c>
+      <c r="AR11" s="16">
+        <v>46</v>
+      </c>
+      <c r="AS11" s="16">
+        <v>34</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>35</v>
+      </c>
+      <c r="AU11" s="16">
+        <v>43</v>
+      </c>
+      <c r="AV11" s="16">
+        <v>68</v>
+      </c>
+      <c r="AW11" s="16">
+        <v>33</v>
+      </c>
+      <c r="AX11" s="16">
+        <v>52</v>
+      </c>
+      <c r="AY11" s="16">
+        <v>31</v>
+      </c>
+      <c r="AZ11" s="16">
+        <v>35</v>
+      </c>
+      <c r="BA11" s="16">
+        <v>103</v>
+      </c>
+      <c r="BB11" s="16">
+        <v>76</v>
+      </c>
+      <c r="BC11" s="16">
+        <v>81</v>
       </c>
       <c r="BD11" s="2">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="BE11" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="BF11" s="2">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="BH11" s="2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="BI11" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BJ11" s="2">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="BK11" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BL11" s="2">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="BM11" s="2">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="BN11" s="2">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="BO11" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BP11" s="2">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="BQ11" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BR11" s="2">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BU11" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BV11" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BW11" s="2">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BX11" s="2">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="BY11" s="2">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="BZ11" s="12"/>
-      <c r="CA11" s="12"/>
+      <c r="CA11" s="14"/>
       <c r="CB11" s="12"/>
       <c r="CC11" s="12"/>
       <c r="CD11" s="12"/>
@@ -4701,230 +4718,230 @@
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="17">
         <v>15</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="17">
+        <v>19</v>
+      </c>
+      <c r="E12" s="17">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17">
+        <v>16</v>
+      </c>
+      <c r="G12" s="17">
+        <v>21</v>
+      </c>
+      <c r="H12" s="17">
+        <v>18</v>
+      </c>
+      <c r="I12" s="17">
+        <v>15</v>
+      </c>
+      <c r="J12" s="17">
+        <v>13</v>
+      </c>
+      <c r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17">
+        <v>17</v>
+      </c>
+      <c r="M12" s="17">
+        <v>19</v>
+      </c>
+      <c r="N12" s="17">
+        <v>33</v>
+      </c>
+      <c r="O12" s="17">
+        <v>30</v>
+      </c>
+      <c r="P12" s="17">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>17</v>
+      </c>
+      <c r="R12" s="17">
+        <v>27</v>
+      </c>
+      <c r="S12" s="17">
+        <v>29</v>
+      </c>
+      <c r="T12" s="17">
+        <v>23</v>
+      </c>
+      <c r="U12" s="17">
+        <v>54</v>
+      </c>
+      <c r="V12" s="17">
+        <v>19</v>
+      </c>
+      <c r="W12" s="17">
+        <v>32</v>
+      </c>
+      <c r="X12" s="17">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>37</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>43</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>39</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>40</v>
+      </c>
+      <c r="AG12" s="17">
+        <v>40</v>
+      </c>
+      <c r="AH12" s="17">
+        <v>28</v>
+      </c>
+      <c r="AI12" s="17">
+        <v>57</v>
+      </c>
+      <c r="AJ12" s="17">
+        <v>33</v>
+      </c>
+      <c r="AK12" s="17">
+        <v>40</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>35</v>
+      </c>
+      <c r="AM12" s="17">
+        <v>36</v>
+      </c>
+      <c r="AN12" s="17">
+        <v>41</v>
+      </c>
+      <c r="AO12" s="17">
+        <v>30</v>
+      </c>
+      <c r="AP12" s="17">
+        <v>43</v>
+      </c>
+      <c r="AQ12" s="17">
+        <v>34</v>
+      </c>
+      <c r="AR12" s="17">
+        <v>33</v>
+      </c>
+      <c r="AS12" s="17">
+        <v>34</v>
+      </c>
+      <c r="AT12" s="17">
         <v>31</v>
       </c>
-      <c r="E12" s="3">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>16</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>16</v>
-      </c>
-      <c r="R12" s="3">
-        <v>8</v>
-      </c>
-      <c r="S12" s="3">
-        <v>16</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>16</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>8</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>8</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>6</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>15</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>15</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>16</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>16</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>4</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>15</v>
+      <c r="AU12" s="17">
+        <v>62</v>
+      </c>
+      <c r="AV12" s="17">
+        <v>37</v>
+      </c>
+      <c r="AW12" s="17">
+        <v>34</v>
+      </c>
+      <c r="AX12" s="17">
+        <v>73</v>
+      </c>
+      <c r="AY12" s="17">
+        <v>35</v>
+      </c>
+      <c r="AZ12" s="17">
+        <v>44</v>
+      </c>
+      <c r="BA12" s="17">
+        <v>51</v>
+      </c>
+      <c r="BB12" s="17">
+        <v>44</v>
+      </c>
+      <c r="BC12" s="17">
+        <v>68</v>
       </c>
       <c r="BD12" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BE12" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BF12" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BG12" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BH12" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BI12" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BJ12" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BK12" s="3">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="BL12" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BM12" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BN12" s="3">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="BO12" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BP12" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BQ12" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BR12" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BS12" s="3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="BT12" s="3">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BU12" s="3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BV12" s="3">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="BW12" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BX12" s="3">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="BY12" s="3">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="BZ12" s="12"/>
       <c r="CA12" s="12"/>
@@ -4940,303 +4957,303 @@
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C3:C12)</f>
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ref="D13" si="0">AVERAGE(D3:D12)</f>
-        <v>21.9</v>
+        <v>27.8</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ref="E13" si="1">AVERAGE(E3:E12)</f>
-        <v>15.7</v>
+        <v>29.8</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:L13" si="2">AVERAGE(F3:F12)</f>
-        <v>9.3000000000000007</v>
+        <v>28.2</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="2"/>
-        <v>11.7</v>
+        <v>29.3</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="2"/>
-        <v>5.8</v>
+        <v>27.1</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>10.9</v>
+        <v>31.4</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>28.5</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>7.8</v>
+        <v>29.2</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>28.9</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13" si="3">AVERAGE(M3:M12)</f>
-        <v>6.3</v>
+        <v>32</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" ref="N13" si="4">AVERAGE(N3:N12)</f>
-        <v>6.4</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ref="O13" si="5">AVERAGE(O3:O12)</f>
-        <v>9.1999999999999993</v>
+        <v>52.6</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" ref="P13" si="6">AVERAGE(P3:P12)</f>
-        <v>7.2</v>
+        <v>41.7</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" ref="Q13" si="7">AVERAGE(Q3:Q12)</f>
-        <v>12</v>
+        <v>63.1</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13" si="8">AVERAGE(R3:R12)</f>
-        <v>8.3000000000000007</v>
+        <v>47.8</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ref="S13" si="9">AVERAGE(S3:S12)</f>
-        <v>5.7</v>
+        <v>38</v>
       </c>
       <c r="T13" s="4">
         <f t="shared" ref="T13" si="10">AVERAGE(T3:T12)</f>
-        <v>3.1</v>
+        <v>35.4</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" ref="U13" si="11">AVERAGE(U3:U12)</f>
-        <v>6.3</v>
+        <v>43.1</v>
       </c>
       <c r="V13" s="4">
         <f t="shared" ref="V13" si="12">AVERAGE(V3:V12)</f>
-        <v>4.7</v>
+        <v>34.4</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" ref="W13" si="13">AVERAGE(W3:W12)</f>
-        <v>6.2</v>
+        <v>37.9</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" ref="X13" si="14">AVERAGE(X3:X12)</f>
-        <v>7.3</v>
+        <v>71.7</v>
       </c>
       <c r="Y13" s="4">
         <f t="shared" ref="Y13" si="15">AVERAGE(Y3:Y12)</f>
-        <v>3.9</v>
+        <v>42.7</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" ref="Z13" si="16">AVERAGE(Z3:Z12)</f>
-        <v>4</v>
+        <v>51.5</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" ref="AA13" si="17">AVERAGE(AA3:AA12)</f>
-        <v>4.8</v>
+        <v>73</v>
       </c>
       <c r="AB13" s="4">
         <f t="shared" ref="AB13" si="18">AVERAGE(AB3:AB12)</f>
-        <v>3.1</v>
+        <v>54.6</v>
       </c>
       <c r="AC13" s="4">
         <f t="shared" ref="AC13" si="19">AVERAGE(AC3:AC12)</f>
-        <v>4.7</v>
+        <v>43.8</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" ref="AD13" si="20">AVERAGE(AD3:AD12)</f>
-        <v>3.1</v>
+        <v>50</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" ref="AE13" si="21">AVERAGE(AE3:AE12)</f>
-        <v>4.7</v>
+        <v>54.2</v>
       </c>
       <c r="AF13" s="4">
         <f t="shared" ref="AF13" si="22">AVERAGE(AF3:AF12)</f>
-        <v>5</v>
+        <v>50.1</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" ref="AG13" si="23">AVERAGE(AG3:AG12)</f>
-        <v>4</v>
+        <v>47.3</v>
       </c>
       <c r="AH13" s="4">
         <f t="shared" ref="AH13" si="24">AVERAGE(AH3:AH12)</f>
-        <v>4</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="AI13" s="4">
         <f t="shared" ref="AI13" si="25">AVERAGE(AI3:AI12)</f>
-        <v>9.1999999999999993</v>
+        <v>68.7</v>
       </c>
       <c r="AJ13" s="4">
         <f t="shared" ref="AJ13" si="26">AVERAGE(AJ3:AJ12)</f>
-        <v>7</v>
+        <v>69.2</v>
       </c>
       <c r="AK13" s="4">
         <f t="shared" ref="AK13" si="27">AVERAGE(AK3:AK12)</f>
-        <v>3.6</v>
+        <v>61.1</v>
       </c>
       <c r="AL13" s="4">
         <f t="shared" ref="AL13" si="28">AVERAGE(AL3:AL12)</f>
-        <v>4.5999999999999996</v>
+        <v>57.9</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" ref="AM13" si="29">AVERAGE(AM3:AM12)</f>
-        <v>4.7</v>
+        <v>63.4</v>
       </c>
       <c r="AN13" s="4">
         <f t="shared" ref="AN13" si="30">AVERAGE(AN3:AN12)</f>
-        <v>3.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="AO13" s="4">
         <f t="shared" ref="AO13" si="31">AVERAGE(AO3:AO12)</f>
-        <v>9.9</v>
+        <v>73.2</v>
       </c>
       <c r="AP13" s="4">
         <f t="shared" ref="AP13" si="32">AVERAGE(AP3:AP12)</f>
-        <v>7.8</v>
+        <v>60.2</v>
       </c>
       <c r="AQ13" s="4">
         <f t="shared" ref="AQ13" si="33">AVERAGE(AQ3:AQ12)</f>
-        <v>3.1</v>
+        <v>67</v>
       </c>
       <c r="AR13" s="4">
         <f t="shared" ref="AR13" si="34">AVERAGE(AR3:AR12)</f>
-        <v>4.7</v>
+        <v>69.3</v>
       </c>
       <c r="AS13" s="4">
         <f t="shared" ref="AS13" si="35">AVERAGE(AS3:AS12)</f>
-        <v>6.3</v>
+        <v>68.8</v>
       </c>
       <c r="AT13" s="4">
         <f t="shared" ref="AT13" si="36">AVERAGE(AT3:AT12)</f>
-        <v>8.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AU13" s="4">
         <f t="shared" ref="AU13" si="37">AVERAGE(AU3:AU12)</f>
-        <v>2.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AV13" s="4">
         <f t="shared" ref="AV13" si="38">AVERAGE(AV3:AV12)</f>
-        <v>4.7</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AW13" s="4">
         <f t="shared" ref="AW13" si="39">AVERAGE(AW3:AW12)</f>
-        <v>4.7</v>
+        <v>88.1</v>
       </c>
       <c r="AX13" s="4">
         <f t="shared" ref="AX13" si="40">AVERAGE(AX3:AX12)</f>
-        <v>3.1</v>
+        <v>87.1</v>
       </c>
       <c r="AY13" s="4">
         <f t="shared" ref="AY13" si="41">AVERAGE(AY3:AY12)</f>
-        <v>4.7</v>
+        <v>72.2</v>
       </c>
       <c r="AZ13" s="4">
         <f t="shared" ref="AZ13" si="42">AVERAGE(AZ3:AZ12)</f>
-        <v>4.7</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="BA13" s="4">
         <f t="shared" ref="BA13" si="43">AVERAGE(BA3:BA12)</f>
-        <v>3.1</v>
+        <v>96.8</v>
       </c>
       <c r="BB13" s="4">
         <f t="shared" ref="BB13" si="44">AVERAGE(BB3:BB12)</f>
-        <v>4.7</v>
+        <v>89.6</v>
       </c>
       <c r="BC13" s="4">
         <f t="shared" ref="BC13" si="45">AVERAGE(BC3:BC12)</f>
-        <v>6.2</v>
+        <v>87.2</v>
       </c>
       <c r="BD13" s="4">
         <f t="shared" ref="BD13" si="46">AVERAGE(BD3:BD12)</f>
-        <v>6.3</v>
+        <v>91.3</v>
       </c>
       <c r="BE13" s="4">
         <f t="shared" ref="BE13" si="47">AVERAGE(BE3:BE12)</f>
-        <v>6.3</v>
+        <v>108.5</v>
       </c>
       <c r="BF13" s="4">
         <f t="shared" ref="BF13" si="48">AVERAGE(BF3:BF12)</f>
-        <v>3.1</v>
+        <v>82.5</v>
       </c>
       <c r="BG13" s="4">
         <f t="shared" ref="BG13" si="49">AVERAGE(BG3:BG12)</f>
-        <v>6.2</v>
+        <v>99</v>
       </c>
       <c r="BH13" s="4">
         <f t="shared" ref="BH13" si="50">AVERAGE(BH3:BH12)</f>
-        <v>4.7</v>
+        <v>100.7</v>
       </c>
       <c r="BI13" s="4">
         <f t="shared" ref="BI13" si="51">AVERAGE(BI3:BI12)</f>
-        <v>4.7</v>
+        <v>130</v>
       </c>
       <c r="BJ13" s="4">
         <f t="shared" ref="BJ13" si="52">AVERAGE(BJ3:BJ12)</f>
-        <v>4.7</v>
+        <v>117.9</v>
       </c>
       <c r="BK13" s="4">
         <f t="shared" ref="BK13" si="53">AVERAGE(BK3:BK12)</f>
-        <v>3.1</v>
+        <v>126.2</v>
       </c>
       <c r="BL13" s="4">
         <f t="shared" ref="BL13" si="54">AVERAGE(BL3:BL12)</f>
-        <v>4.7</v>
+        <v>120.9</v>
       </c>
       <c r="BM13" s="4">
         <f t="shared" ref="BM13" si="55">AVERAGE(BM3:BM12)</f>
-        <v>4.7</v>
+        <v>135.9</v>
       </c>
       <c r="BN13" s="4">
         <f t="shared" ref="BN13" si="56">AVERAGE(BN3:BN12)</f>
-        <v>5.4</v>
+        <v>115.2</v>
       </c>
       <c r="BO13" s="4">
         <f t="shared" ref="BO13" si="57">AVERAGE(BO3:BO12)</f>
-        <v>2.8</v>
+        <v>129.6</v>
       </c>
       <c r="BP13" s="4">
         <f t="shared" ref="BP13" si="58">AVERAGE(BP3:BP12)</f>
-        <v>4.5999999999999996</v>
+        <v>149.4</v>
       </c>
       <c r="BQ13" s="4">
         <f t="shared" ref="BQ13" si="59">AVERAGE(BQ3:BQ12)</f>
-        <v>4.8</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="BR13" s="4">
         <f t="shared" ref="BR13" si="60">AVERAGE(BR3:BR12)</f>
-        <v>4.5999999999999996</v>
+        <v>118.8</v>
       </c>
       <c r="BS13" s="4">
         <f t="shared" ref="BS13" si="61">AVERAGE(BS3:BS12)</f>
-        <v>3.1</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="BT13" s="4">
         <f t="shared" ref="BT13" si="62">AVERAGE(BT3:BT12)</f>
-        <v>4.7</v>
+        <v>161.6</v>
       </c>
       <c r="BU13" s="4">
         <f t="shared" ref="BU13" si="63">AVERAGE(BU3:BU12)</f>
-        <v>7.9</v>
+        <v>146.4</v>
       </c>
       <c r="BV13" s="4">
         <f t="shared" ref="BV13" si="64">AVERAGE(BV3:BV12)</f>
-        <v>4.5999999999999996</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="BW13" s="4">
         <f t="shared" ref="BW13" si="65">AVERAGE(BW3:BW12)</f>
-        <v>5</v>
+        <v>166.3</v>
       </c>
       <c r="BX13" s="4">
         <f t="shared" ref="BX13" si="66">AVERAGE(BX3:BX12)</f>
-        <v>6.2</v>
+        <v>202.2</v>
       </c>
       <c r="BY13" s="4">
         <f t="shared" ref="BY13" si="67">AVERAGE(BY3:BY12)</f>
-        <v>9.4</v>
+        <v>167</v>
       </c>
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
@@ -5252,303 +5269,303 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:E14" si="68">_xlfn.STDEV.S(C3:C12)</f>
-        <v>16.625281952496326</v>
+        <v>14.850738851802774</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="68"/>
-        <v>8.061568636989259</v>
+        <v>14.687863470679913</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="68"/>
-        <v>7.557924465236618</v>
+        <v>25.253382611708343</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:AG14" si="69">_xlfn.STDEV.S(F3:F12)</f>
-        <v>8.014570065407959</v>
+        <v>16.294511686795378</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="69"/>
-        <v>8.393780766469634</v>
+        <v>22.346016299207438</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="69"/>
-        <v>6.338594306135847</v>
+        <v>15.940514420808382</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="69"/>
-        <v>7.5343657109717395</v>
+        <v>21.787866144051627</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="69"/>
-        <v>8.1383864084555082</v>
+        <v>15.904227250779726</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="69"/>
-        <v>8.2300263264058486</v>
+        <v>16.578433111860857</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="69"/>
-        <v>5.1044642770378514</v>
+        <v>16.569382741805576</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="69"/>
-        <v>8.1383864084555082</v>
+        <v>24.580932086115492</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="69"/>
-        <v>6.328067986711619</v>
+        <v>22.465034559906151</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="69"/>
-        <v>3.2591750830880848</v>
+        <v>45.712142806917292</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="69"/>
-        <v>2.529822128134704</v>
+        <v>24.009488864937449</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="69"/>
-        <v>4.2163702135578394</v>
+        <v>51.752509332613258</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="69"/>
-        <v>0.67494855771055295</v>
+        <v>26.6449911907577</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="69"/>
-        <v>5.4579198316656221</v>
+        <v>24.408559518697079</v>
       </c>
       <c r="T14" s="5">
         <f t="shared" si="69"/>
-        <v>6.5396228229666784</v>
+        <v>27.556810007288174</v>
       </c>
       <c r="U14" s="5">
         <f t="shared" si="69"/>
-        <v>8.1383864084555082</v>
+        <v>22.183327072375778</v>
       </c>
       <c r="V14" s="5">
         <f t="shared" si="69"/>
-        <v>7.5726114679444931</v>
+        <v>18.992396139274028</v>
       </c>
       <c r="W14" s="5">
         <f t="shared" si="69"/>
-        <v>8.0111034057598935</v>
+        <v>39.646913849349964</v>
       </c>
       <c r="X14" s="5">
         <f t="shared" si="69"/>
-        <v>7.1499805749541885</v>
+        <v>55.389629996156422</v>
       </c>
       <c r="Y14" s="5">
         <f t="shared" si="69"/>
-        <v>3.9567101935263791</v>
+        <v>23.865595879145076</v>
       </c>
       <c r="Z14" s="5">
         <f t="shared" si="69"/>
-        <v>4.2163702135578394</v>
+        <v>32.342782124541415</v>
       </c>
       <c r="AA14" s="5">
         <f t="shared" si="69"/>
-        <v>4.1311822359545776</v>
+        <v>42.063444144926287</v>
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="69"/>
-        <v>5.5065617423417876</v>
+        <v>26.575678103609452</v>
       </c>
       <c r="AC14" s="5">
         <f t="shared" si="69"/>
-        <v>7.5726114679444931</v>
+        <v>34.730070224198762</v>
       </c>
       <c r="AD14" s="5">
         <f t="shared" si="69"/>
-        <v>6.5396228229666784</v>
+        <v>25.082087455216143</v>
       </c>
       <c r="AE14" s="5">
         <f t="shared" si="69"/>
-        <v>7.5726114679444931</v>
+        <v>27.034134801107363</v>
       </c>
       <c r="AF14" s="5">
         <f t="shared" si="69"/>
-        <v>5.6568542494923806</v>
+        <v>25.330920937770021</v>
       </c>
       <c r="AG14" s="5">
         <f t="shared" si="69"/>
-        <v>4.2163702135578394</v>
+        <v>22.5292402594199</v>
       </c>
       <c r="AH14" s="5">
         <f t="shared" ref="AH14:BY14" si="70">_xlfn.STDEV.S(AH3:AH12)</f>
-        <v>6.7986926847903799</v>
+        <v>30.11994540352142</v>
       </c>
       <c r="AI14" s="5">
         <f t="shared" si="70"/>
-        <v>7.1305290437978339</v>
+        <v>32.359267949417863</v>
       </c>
       <c r="AJ14" s="5">
         <f t="shared" si="70"/>
-        <v>3.4641016151377544</v>
+        <v>38.098702223449962</v>
       </c>
       <c r="AK14" s="5">
         <f t="shared" si="70"/>
-        <v>4.9261208538429777</v>
+        <v>31.687536982226941</v>
       </c>
       <c r="AL14" s="5">
         <f t="shared" si="70"/>
-        <v>7.4117024584998914</v>
+        <v>29.875482329904642</v>
       </c>
       <c r="AM14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>30.503915959904049</v>
       </c>
       <c r="AN14" s="5">
         <f t="shared" si="70"/>
-        <v>6.7461923416925424</v>
+        <v>63.653925426655526</v>
       </c>
       <c r="AO14" s="5">
         <f t="shared" si="70"/>
-        <v>6.9033003379221123</v>
+        <v>46.89894573560381</v>
       </c>
       <c r="AP14" s="5">
         <f t="shared" si="70"/>
-        <v>8.2300263264058486</v>
+        <v>21.138695429104519</v>
       </c>
       <c r="AQ14" s="5">
         <f t="shared" si="70"/>
-        <v>6.5396228229666784</v>
+        <v>36.04318397576872</v>
       </c>
       <c r="AR14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>43.868616977921192</v>
       </c>
       <c r="AS14" s="5">
         <f t="shared" si="70"/>
-        <v>8.1383864084555082</v>
+        <v>39.949412455698962</v>
       </c>
       <c r="AT14" s="5">
         <f t="shared" si="70"/>
-        <v>7.48628375393589</v>
+        <v>39.104418619326843</v>
       </c>
       <c r="AU14" s="5">
         <f t="shared" si="70"/>
-        <v>5.0288059108389627</v>
+        <v>43.354353875937306</v>
       </c>
       <c r="AV14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>38.275173270527318</v>
       </c>
       <c r="AW14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>80.279304099292403</v>
       </c>
       <c r="AX14" s="5">
         <f t="shared" si="70"/>
-        <v>6.5396228229666784</v>
+        <v>49.268989570858182</v>
       </c>
       <c r="AY14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>36.726617655924215</v>
       </c>
       <c r="AZ14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>42.581164328321925</v>
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="70"/>
-        <v>6.5396228229666784</v>
+        <v>46.953404799036917</v>
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>51.101641634861174</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="70"/>
-        <v>8.0111034057598935</v>
+        <v>39.072013286011035</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="70"/>
-        <v>8.1383864084555082</v>
+        <v>44.010226084399982</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="70"/>
-        <v>8.1383864084555082</v>
+        <v>88.325471348240697</v>
       </c>
       <c r="BF14" s="5">
         <f t="shared" si="70"/>
-        <v>6.5396228229666784</v>
+        <v>43.027768811418618</v>
       </c>
       <c r="BG14" s="5">
         <f t="shared" si="70"/>
-        <v>8.0111034057598935</v>
+        <v>42.578032938228709</v>
       </c>
       <c r="BH14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>47.960747839596223</v>
       </c>
       <c r="BI14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>70.978870095261442</v>
       </c>
       <c r="BJ14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>64.934924689603235</v>
       </c>
       <c r="BK14" s="5">
         <f t="shared" si="70"/>
-        <v>6.5396228229666784</v>
+        <v>42.007406754312065</v>
       </c>
       <c r="BL14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>50.588646069163687</v>
       </c>
       <c r="BM14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>52.360820806740179</v>
       </c>
       <c r="BN14" s="5">
         <f t="shared" si="70"/>
-        <v>7.1055533837195881</v>
+        <v>69.045556619444298</v>
       </c>
       <c r="BO14" s="5">
         <f t="shared" si="70"/>
-        <v>5.0288059108389627</v>
+        <v>63.76031506962444</v>
       </c>
       <c r="BP14" s="5">
         <f t="shared" si="70"/>
-        <v>7.4117024584998914</v>
+        <v>81.662176747323542</v>
       </c>
       <c r="BQ14" s="5">
         <f t="shared" si="70"/>
-        <v>7.7287342646343671</v>
+        <v>63.203463336891424</v>
       </c>
       <c r="BR14" s="5">
         <f t="shared" si="70"/>
-        <v>7.4117024584998914</v>
+        <v>60.35229904485827</v>
       </c>
       <c r="BS14" s="5">
         <f t="shared" si="70"/>
-        <v>6.5396228229666784</v>
+        <v>57.304353140829448</v>
       </c>
       <c r="BT14" s="5">
         <f t="shared" si="70"/>
-        <v>7.5726114679444931</v>
+        <v>81.814424156135203</v>
       </c>
       <c r="BU14" s="5">
         <f t="shared" si="70"/>
-        <v>8.3326666399978659</v>
+        <v>80.495962631674885</v>
       </c>
       <c r="BV14" s="5">
         <f t="shared" si="70"/>
-        <v>7.4117024584998914</v>
+        <v>66.623402628339079</v>
       </c>
       <c r="BW14" s="5">
         <f t="shared" si="70"/>
-        <v>4.9888765156985881</v>
+        <v>89.8777564868589</v>
       </c>
       <c r="BX14" s="5">
         <f t="shared" si="70"/>
-        <v>8.0111034057598935</v>
+        <v>169.17564836583307</v>
       </c>
       <c r="BY14" s="5">
         <f t="shared" si="70"/>
-        <v>8.0993826925266337</v>
+        <v>81.080207202497945</v>
       </c>
       <c r="BZ14" s="13"/>
       <c r="CA14" s="13"/>
@@ -5557,6 +5574,12 @@
       <c r="CD14" s="13"/>
       <c r="CE14" s="13"/>
       <c r="CF14" s="13"/>
+    </row>
+    <row r="20" spans="69:74" x14ac:dyDescent="0.3">
+      <c r="BQ20" s="15"/>
+    </row>
+    <row r="23" spans="69:74" x14ac:dyDescent="0.3">
+      <c r="BV23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
